--- a/500all/speech_level/speeches_CHRG-114hhrg98825.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98825.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. The committee will come to order, and the Chair recognizes himself for an opening statement.    Today, we are reviewing Senate Bill 611, the Grassroots Rural and Small Community Water Systems Assistance Act. This bill, which passed the Senate by unanimous consent on June 9th of this year, is the Senate companion to H.R. 2853, introduced by our ranking member of the subcommittee, Mr. Tonko, and the vice chairman of the subcommittee, Mr. Harper.    I congratulate and thank them for their bipartisan work to raise the profile of this issue before the subcommittee and encouraging our work on it.    According to the Census Bureau, approximately 27 percent of the U.S. population lives in rural areas. The smallest water systems account for 77 percent of all systems.    As someone who proudly represents communities in small town and rural America, I am glad we have bipartisan interest in tackling this subject.    Under the Safe Drinking Water Act, small and rural drinking water supply systems are subject to a number of drinking water regulations issued by EPA. These requirements include system monitoring, treatment to remove certain contaminants and reporting.    Addressing these matters requires technical, managerial, and physical capabilities that are difficult to develop and are often beyond the capacity of these towns to afford on the same scale as urban centers, particularly when it comes to regulatory compliance.    It is ironic that these communities, where residents work hard to support their families and their local governments while often earning wages below those of their counterparts in the more urbanized areas, face per customer compliance costs and demands that are disproportionate to many larger communities.    Sometimes, it is just a matter of having the ability to keep up with the red tape. Rather than throwing more scarce money at the problem, we learned in February that these communities need help to smartly assess what their needs are for these systems and prioritize the importance of those needs.    The bill before us amends Safe Drinking Water Act to reauthorize the EPA's program providing technical assistance to small public water systems.    Senate Bill 611 maintains the existing statutory authority of $15 million annually, including 3 percent for technical assistance to public water systems owned or operated by Indian tribes, but changes the law to cover funding from fiscal year 2015 through fiscal year 2020.    The bill also authorizes EPA to provide technical assistance programs to small public water systems through grants or cooperative agreements made to nonprofit organizations.    The bill requires preference in awarding grants to nonprofits that are most qualified and experienced and that small water systems find most beneficial and effective--a feature we heard about during our February hearing.    Finally, while Senate Bill 611 prevents grants and cooperative agreements from being used to bring a citizen suit under the Safe Drinking Water Act, it expands the types of activities eligible to receive a grant or cooperative agreement under this Safe Drinking Water Act to include assistance with source water protection plans, monitoring plans and water security.    I want to thank our witnesses who joined us. Having this hearing today is all the more important because, while the House Appropriations Committee has not provided small water technical assistance funding for fiscal year 2016, that committee has left open the option that it would reevaluate funding for this matter as part of a later annual spending bill if Congress enacts a fresh authorization.    People who live in rural communities deserve every bit of water quality and technical resources that folks who live in densely populated urban centers do.    We look forward to your wisdom in helping us understand these issues. Thanks again to Mr. Tonko and Mr. Harper for their work on this issue.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Chair Shimkus, and good morning. For holding this hearing, we thank you. It is important to review the Grassroots, Rural and Small Community Water Systems Assistance Act.    I am very pleased to be working with you, Chair, and with Representative Harper and the other members of the subcommittee to move this bill forward.    Sen. Wicker's bill and its companion, H.R. 2853, offers a small but important step that we need to take to support small water utilities. S. 611 reauthorizes a small but important program that delivers technical assistance and training to community water systems.    The ratepayer base for these small systems does not provide a sufficient operating budget to support full time technical positions.    Technical assistance programs like circuit riders and source water protection programs help small utility operators to keep clean safe drinking water flowing to their customers.    Our community water utilities have needs that go far beyond technical assistance, of course. The hearing in our subcommittee back in February provided us with ample evidence of the many needs of small community water utilities.    The situation that exists in rural, suburban and metropolitan areas across our country with respect to the condition of our drinking water infrastructure is indeed very serious.    Drinking water infrastructure across the country is in need of major repairs and major upgrades. Communities are struggling to find the resources needed to maintain water mains, pumping stations and drinking water treatment facilities.    Households and businesses across our country expect reliable daily delivery of safe clean water at an affordable price to their homes and their businesses.    They not only expect it, it is essential to the social and economic viability of every community, of every household, of every business.    The inconvenience, the disruption of daily activities and economic losses to businesses of emergency shutdowns to drinking water systems is indeed significant, even for a shutdown of short duration.    A longer term break in service, as we all know, is devastating. Water utilities, especially those with small rate basis, cannot simply pass all of their costs for technical assistance, infrastructure repairs, tapping into new water sources or keeping pace with drinking water regulations on to their customers by raising rates.    The backlog of maintenance is now too large to be covered by rate increases alone. It is long past time for Congress to step in and provide robust financial support, support that would repair and modernize this essential infrastructure.    Too often now utilities are responding to emergency situations, situations created by ruptures of water mains or sudden problems with raw water quality or quantity. Emergency response costs far more than a systematic planned program of repair and replacement.    The Environmental Protection Agency's most recent report on drinking water infrastructure and their needs indicates that--an investment of $384.2 billion over the next 20 years, about $19 billion, that is, per year.    Because past Congresses failed to heed the information that we asked the agency to produce this number has grown by about $157 billion since the first report was issued back in 1995.    We are headed in the wrong direction. Clearly, more resources are needed. We are not saving money by continuing to ignore this problem. We are only passing an ever growing maintenance bill onto our children and grandchildren and generations yet unborn.    Our parents and grandparents invested in the infrastructure that enabled our Nation to grow and our Nation to prosper. We have a responsibility to ensure that the Nation's infrastructure remains a strong foundation for prosperity into the future.    In addition, to support through traditional funding mechanisms the State revolving loan fund and grant programs, we should also examine alternative financing mechanisms, new technologies and potential new partnerships that would enable every dollar to go that much further in reducing the backlog of infrastructure projects.     We cannot afford to delay these investments any longer. The bill for these repairs is growing, growing larger over time and failure to maintain these systems jeopardizes public health and limits development and economic growth.    Public health, community viability and economic vitality all rest on the foundation of sound infrastructure.    We cannot maintain global leadership and compete in a 21st century global economy with poorly maintained 20th century infrastructure.    And so, Mr. Chair, I hope this bill will not be the subcommittee's last effort on drinking water this Congress. I am certain that other members hear about this problem in their districts as often as you and I do.    If we work together we can rebuild this essential infrastructure and foster economic growth and protect public health. We have an excellent panel with us today and I thank you both for taking time away from the important work that you do to be here with us this morning.    With that, I look forward to your testimony and to working with you going forward. Let us build our drinking water infrastructure.    With that, I yield back to the Chair.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>412280</t>
   </si>
   <si>
-    <t>Gregg Harper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman, and thank you so much for our witnesses being here.    Mr. Chairman, thank you for holding this legislative hearing on S. 611, the Grass Roots Rural and Small Community Water System Assistance Act.    As you well know, this issue is of great importance to our constituents who live in rural and small communities. Rural water system often find themselves at a loss when complying with Federal rules and regulations and the technical assistance provided by S. 611 is the tool they use to ensure they are meeting the needs of their customers.    I appreciate the work Mr. Tonko and his staff have done on this issue and for his help in introducing H.R. 2853, the House companion bill to S. 611.    I also would like to welcome my friend, Kirby Mayfield, the executive director of the Mississippi Rural Water Association, and I look forward to hearing today from each of these witnesses and working on these rural water issues in the future.    With that, I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you.    I am pleased that the subcommittee is returning to the important issue of drinking water safety. We started this Congress by examining some emerging drinking water threats including toxic blue green algae and the legislation this subcommittee passed on harmful algal blooms is now taking effect and it has set us on a path to address that serious threat.    We also held a hearing back in February on problems facing rural water systems. As we heard then, these systems are facing serious threats from outdated infrastructure, lack of funding and extreme weather.    We in Congress have continued to underfund infrastructure improvements and have continued to undermine efforts to address climate change. So we should expect these problems to get worse before they get better.    Resources are central to any conversation about safe drinking water. Much of our Nation's drinking water infrastructure is well beyond its useful life and in desperate need of replacement. Investing in drinking water infrastructure protects public health, creates jobs and boosts the economy.    It is imperative that this subcommittee take on the important task of reauthorizing the drinking water State revolving fund. The longer we put off drinking water repairs, the more pressing the public health threats become.    But the subcommittee is not tackling that important task today. Instead, the majority is focused on a small pot of money set aside for technical assistance for small public water systems.    This money, distributed through grantees including the National Rural Water Association and the Rural Community Assistance Partnership, has been important for small systems though it does not begin to close the infrastructure funding gap that they face.    Both NRWA and RCAP will be represented on the panel today and I look forward to hearing from them about how this program can be implemented to the greatest benefit for small systems and public health.    I expect the committee and probably the House will move this legislation. It will be signed by the president. That is a good step and I welcome it. But it is not the whole solution for small systems or for our drinking water infrastructure.    Small systems serve only 8 percent of the population. We should absolutely do what is necessary to ensure they have safe water.    But we should also protect the other 92 percent and that means reauthorizing the SRF, ensuring that fracking is done safely, ensuring source water protection, addressing drought and planning for climate change.    I liked the algae bill we worked on earlier this year. This bill shows that we can come together to pass laws and address drinking water issues.    So I hope my Republican colleagues will see this only as the beginning and I thank the chairman for calling this hearing.    I particularly thank the ranking member of our subcommittee, Mr. Tonko, for his leadership on drinking water issues.    I don't know if anybody else wants my time. If not, I will yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -100,18 +88,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Mayfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mayfield. Thank you, and good morning, Chairman Shimkus, Ranking Member Tonko, members of the subcommittee.    I am Kirby Mayfield, the executive director of Mississippi Rural Water Association, a nonprofit association of over 1,000 small rural communities as members.    All small and rural communities have the very important public responsibility of complying with all Federal water regulations and for supplying the public with safe drinking water and sanitation every second of every day.    Small and rural communities often have difficulty providing safe affordable drinking water and sanitation due to limited economies of scale and lack of technical experience.    I am very proud that our congressman on the committee, Representative Greg Harper, is sponsor of the Grassroots Rural and Small Community Water Systems Assistance Act in the House of Representatives. Thank you very much, Congressman Harper.    Attached to my written testimony is a letter from the New York Rural Water Association to Representative Tonko, stating, ``On behalf of all the rural small communities in the 20th congressional district in the State of New York, we are grateful to Congressman Tonko for being the original cosponsor of the Grassroots Rural Water Small Community Water Systems Assistance Act and for your continued assistance.''    Mr. Chairman, I used to be a rural water circuit rider for over a decade back in Mississippi. As a circuit rider, as a water operations and compliance assistance technician who travels the State to be available on site and immediately to any small community that has water issues, the circuit rider concept was designed and funded by Congress to allow small communities access to technical expertise that is available to most all larger communities.    A typical on-site contact could include ensuring the water service is protected and secure, discovering and repairing a faulty chlorination system, assisting the community to remove and replace the filtration media, training a new operator to run that particular treatment system, finding engineering and construction errors in a new sewer system, solving lead and copper rule problems or completing all the paperwork for funding programs including the State revolving funds.    Often this means being available to travel to the communities on nights, weekends and during disasters when the problem occurs. Each community's water infrastructure is unique, which means technical assistance must be available to address that community's particular problem.    Regarding the Grassroots Rural and Small Community Water Systems Assistance Act, small and rural communities urge the subcommittee to approve the bill for the following reasons.    The EPA appropriation bill directs about one-half of 1 percent of the agency's internal budget to drinking water technical assistance.    Of the billions of dollars provided to EPA by Congress each year, small rural communities will tell you they see and feel the most benefit from the dollars provided to on-site technical assistance.    The bill reauthorizes the Safe Drinking Water Act technical assistance provision and mandates that EPA target congressional funding for the most beneficial assistance to small rural communities.    The preference provision in the bill ensures EPA will follow congressional intent and administration of the appropriations.    This provision would have implementing the program easier for EPA by providing greater clarity of the intent of Congress to require EPA to ask each technical assistance provider competing for the funding to simply demonstrate to what extent community water systems find their proposal to be the most beneficial and effective.    Small and rural communities are very hopeful the bill can be enacted in the remaining weeks of this congressional session and be operative in this appropriations cycle.    Currently, the small rural communities are struggling under new Federal regulations, complex funding program applications and continuing mandatory operator training requirements.    Thank you again for the opportunity to appear before the subcommittee and discuss this very important public health issue for small and rural communities.    I would be happy to entertain any questions from the subcommittee. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you, Mr. Mayfield.    And now I will turn to Robert Stewart, executive director of Rural Community Assistance Partnership Incorporated, and I think you were here a couple months ago. It is great to have you back, and welcome.</t>
   </si>
   <si>
-    <t>Stewart</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stewart. Thank you so much, Chairman.    I really appreciate the opportunity to come back and, Chairman Shimkus and Ranking Member Tonko and members of the committee, it really is a pleasure to be here and talk to you about this subject.    I think what we have heard already has laid a great foundation sort of describing what the problem is. But, you know, I am here to testify in support of any efforts including this legislation that can increase the availability of technical assistance and training for small community water systems that is provided by those nonprofit organizations best suited to provide this assistance that have staff on the ground in every State and that is directed at meeting the most critical needs of small communities in regards to regulatory compliance, financial, managerial and technical sustainability.    My name, again, is Robert Stewart. I am with the Rural Community Assistance Partnership, which is a national organization, been around 40 years working with a couple thousand rural communities every year primarily on water and wastewater issues as well as solid waste, affordable housing and economic development issues.    Section 1442(e) of the Safe Drinking Water Act amendments of 1996 were meant to help small communities comply with the increasing regulatory burden that was being placed on them by the Safe Drinking Water Act, sort of a trade-off where we are going to ask you to comply with additional requirements and these have been coming down significantly in the last 20 years.    In order to comply with these things, we said it was going to be a Congress--you all said it was going to be necessary to provide some technical assistance and that is what 1442(e) has--was meant to do and has been--we have been working on.    And, you know, since the expiration of the initial authorization Congress had continued to fund this program, which we are very--we are very much appreciative of, the thousands of small communities that rely on this technical assistance are appreciative of.    You know, I might point out that it has been sort of somewhat distressing to us the EPA has never included this funding within their own budget and it has fallen on the National Rural Water Association and my organization to come to Congress to sort of have these funds appropriated every year.    At the same time, EPA, and Mr. Mayfield was sort of alluding to this in a way but I will say it more directly, EPA has spent a lot of money on developing a variety of tools and programs that are meant to help small communities but which I think in large part have been of marginal usefulness to these small communities.    You know, so one thing I want to talk about, which is--I don't think it is probably under discussion here at all but why--you know, what is the need for on the ground kind of assistance that RCAP and National Rural Water Association provides.    You know, we have heard about the lack of staffing. Typically, you have volunteer staff in these small communities, people that might be working part time.    Many times there is a lack of expertise in meeting the kind of regulatory requirements that these systems fall under in regard to the operations and the compliance.    There is a real difficulty in accessing existing financing sources.    Whether that is due to the EPA's State revolving funds or the rural development's water environment program, it is just--it requires a lot of sophistication in order to understand that they are there, access those fundings, meet all the requirements and then carry through a construction project.    There is also just a variety of issues just in managing a small water utility. This is just like any other business you might come across except it exists in a heavily regulated environment.    And you combine providing a public service, heavily regulated environment, lack of resources, it is just very difficult for small systems--small community systems--to sort of meet all these requirements without some additional kind of training and technical assistance such as the legislation that we are considering here provides.    The needs are many, as I said before, and I understand the resources are few, and I think any time we have a chance to direct the resources to where it is needed the most you are going to see NRWA and RCAP being in support of that and I think that is what this does.    There are a lot of opportunities that we have heard mentioned. I know Mr. Tonko mentioned a couple of these things. You know, regionalization in small communities is something we really need to see.    We need to sort of be in a mode of sharing resources and working together. As you all know, there are 5,600 thousand community water systems in this country. It is just how many electric utilities are there.    You know, I mean, hardly any compared to the tens of thousands of small water systems there are. But the needs, again, you know, emergency preparedness--we have heard about these--a drought, training and equipping operators in small systems, a budget and rate setting, you know, accessing informational resources.    You know, there is just this whole litany of needs that small communities have a real difficult time meeting whereas when you look at the larger utilities they will have professional engineers on staff, CPAs on staff, planners on staff.    And in a small utility like Mr. Mayfield was referring to specifically, it is usually one person that has, you know, 10 different jobs.    And so it has been really tough and so I just welcome the opportunity to talk more about this. I am going to end it here because hopefully you all have some questions that I can answer and I am sure Mr. Mayfield and I would be happy to answer any questions you might have.    Thank you.</t>
   </si>
   <si>
@@ -337,9 +319,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman, for the opportunity to have a discussion on this subject and I am pleased to be one of the cosponsors of the legislation that we have.    I represent in West Virginia another--just like you, Mr. Mayfield--a rural impoverished State that struggles. We have the highest rate of unemployment.    We have the second lowest per capita income in my district. I don't have--I have two cities that have 30,000 people. Other than that, every community is smaller than that. Some--I have got one community that only has 500 people, a seasonal community that maybe can grow to 2,000 during the winter. And they had a little problem.    Here is a--here is a water line that they tried for 10 years to get funds for and it only has the ability to pass maybe about 22 percent of the water through that line. But they can't get money.    So I applaud this effort to try to get more technical assistance but I am--but I am wondering if we are chasing the wrong rabbit.    I mean, it is good to get this, to get people lined up in the queue to get money. But we got to get the money. We got to have more money at the other end.    The State revolving fund has been used as a pawn and I know in 2013 the president in his budget slashed almost 50 percent out of the money, out of the SRO.    And if it weren't for members on the other side of the aisle when working with the Appropriations Committee we were able to get that money restored.    But I don't know whether the administration and other people within the groups actually feel the need for rural America with the problems we have with us because this was done not with any--well, not dime of Federal money.    They finally had to get the State to step in because everyone was saying there was just no Federal money. We can't do it because you are such a small community.    I have got another community that has 75 families, that they get their--they have to get bottled water and they have been doing it for 2 years. They get their potable water so that they can flush their toilets out of a creek.    These are middle-income people that have homes that are $150,000 to $200,000 in value, and they can't sell their home. Who is going to buy a home that doesn't have water to it?    So I am very concerned about this. I want this legislation to pass. But I am equally and even more so concerned that we are giving false hope to people, get people in the queue to get money but there is no money because the allocation in the administration or whatever the programs are they are not funding it into rural communities to be able to help out on that.    I know it. All the words sound right but in the real world I think as we live in, small communities aren't getting that money.    And so what would you do then to help refocus this so that this administration or any administration can understand the hardship that is incurring on small towns, these little communities of 500 or 1,000 people? What would you do to get more money into that account?</t>
   </si>
   <si>
@@ -376,9 +355,6 @@
     <t>400160</t>
   </si>
   <si>
-    <t>Gene Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman, for calling the hearing as part of the subcommittee's ongoing work on drinking water issues.    Safe drinking water is a serious issue in our district as it is likely for every member of this subcommittee. Small and rural water systems face a number of very serious challenges and do not have the customer base to finance serious infrastructure repairs they need.    Customers of public water systems in the country should be able to count on safety of the water coming out of their taps whether they live in a rural area, cities or suburbs.    My question to the panelists, first of all, I have a very urban area but I also represent an unincorporated area that will not be annexed by our major cities because the property wealth is so low it would cost more to serve those areas with streets and water and sewer than it is to--so they are actually hemmed in by cities.    And we have been able in the past to use assistance with matching funds to be able to bring down some of--from--for even very small urban water systems.    How can consolidation help small and rural water systems, for example, in whether it be a rural area like Mississippi or even in an urban area like I have?</t>
   </si>
   <si>
@@ -425,9 +401,6 @@
   </si>
   <si>
     <t>412189</t>
-  </si>
-  <si>
-    <t>Jerry McNerney</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. McNerney. Well, I thank the chairman for your patience and I thank the witnesses.    Mr. Mayfield, it sounds like the circuit rider is a pretty interesting job. You get to go around and see different things just about every day.</t>
@@ -910,11 +883,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -936,11 +907,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -960,13 +929,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -988,11 +955,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1012,13 +977,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1040,11 +1003,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1064,13 +1025,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1092,11 +1051,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1116,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1144,11 +1099,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1168,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1196,11 +1147,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1220,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1248,11 +1195,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1272,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1300,11 +1243,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1324,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1352,11 +1291,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1376,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1404,11 +1339,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1428,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1456,11 +1387,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1480,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1508,11 +1435,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1532,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1560,11 +1483,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1584,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1612,11 +1531,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1636,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1662,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1688,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1714,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1740,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1766,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1792,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1818,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1844,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1870,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1896,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1922,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1948,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1974,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2000,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2026,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2052,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2078,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2104,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2132,11 +2011,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2156,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2182,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2208,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2234,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2260,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2286,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2312,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2338,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2364,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2390,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2416,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2442,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G61" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2468,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2494,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2520,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2546,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2572,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2598,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2624,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2650,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>27</v>
-      </c>
-      <c r="G69" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2676,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2704,11 +2539,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2728,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2754,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2780,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2806,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>27</v>
-      </c>
-      <c r="G75" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2832,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2858,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>27</v>
-      </c>
-      <c r="G77" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2884,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2910,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>27</v>
-      </c>
-      <c r="G79" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2936,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2962,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>27</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2988,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3014,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>27</v>
-      </c>
-      <c r="G83" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3040,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3068,11 +2875,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3092,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>106</v>
-      </c>
-      <c r="G86" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3118,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>27</v>
-      </c>
-      <c r="G87" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3144,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>106</v>
-      </c>
-      <c r="G88" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3170,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>27</v>
-      </c>
-      <c r="G89" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3196,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>27</v>
-      </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3222,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
+        <v>100</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
         <v>106</v>
-      </c>
-      <c r="G91" t="s">
-        <v>107</v>
-      </c>
-      <c r="H91" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3248,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>27</v>
-      </c>
-      <c r="G92" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3274,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>106</v>
-      </c>
-      <c r="G93" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3300,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
-      </c>
-      <c r="G94" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3326,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>106</v>
-      </c>
-      <c r="G95" t="s">
-        <v>107</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3354,11 +3139,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3378,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>119</v>
-      </c>
-      <c r="G97" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3404,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>27</v>
-      </c>
-      <c r="G98" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3430,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>27</v>
-      </c>
-      <c r="G99" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3456,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>119</v>
-      </c>
-      <c r="G100" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3482,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>27</v>
-      </c>
-      <c r="G101" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3508,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>119</v>
-      </c>
-      <c r="G102" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3534,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>27</v>
-      </c>
-      <c r="G103" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3560,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>119</v>
-      </c>
-      <c r="G104" t="s">
+        <v>112</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
         <v>120</v>
-      </c>
-      <c r="H104" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3586,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>27</v>
-      </c>
-      <c r="G105" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3612,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>119</v>
-      </c>
-      <c r="G106" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3638,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>27</v>
-      </c>
-      <c r="G107" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3664,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>119</v>
-      </c>
-      <c r="G108" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3692,11 +3451,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3716,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>27</v>
-      </c>
-      <c r="G110" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3744,11 +3499,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3768,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>136</v>
-      </c>
-      <c r="G112" t="s">
-        <v>137</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3794,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>27</v>
-      </c>
-      <c r="G113" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3820,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>136</v>
-      </c>
-      <c r="G114" t="s">
-        <v>137</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3846,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>27</v>
-      </c>
-      <c r="G115" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3872,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>136</v>
-      </c>
-      <c r="G116" t="s">
-        <v>137</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3898,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>27</v>
-      </c>
-      <c r="G117" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3924,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>136</v>
-      </c>
-      <c r="G118" t="s">
-        <v>137</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3950,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>27</v>
-      </c>
-      <c r="G119" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3976,13 +3713,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>27</v>
-      </c>
-      <c r="G120" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4002,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>136</v>
-      </c>
-      <c r="G121" t="s">
+        <v>128</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
         <v>137</v>
-      </c>
-      <c r="H121" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4028,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>27</v>
-      </c>
-      <c r="G122" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4054,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>136</v>
-      </c>
-      <c r="G123" t="s">
-        <v>137</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4080,13 +3809,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>27</v>
-      </c>
-      <c r="G124" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4106,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>136</v>
-      </c>
-      <c r="G125" t="s">
-        <v>137</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4132,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>27</v>
-      </c>
-      <c r="G126" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4158,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>136</v>
-      </c>
-      <c r="G127" t="s">
-        <v>137</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4184,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>27</v>
-      </c>
-      <c r="G128" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4210,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>136</v>
-      </c>
-      <c r="G129" t="s">
-        <v>137</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4236,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>27</v>
-      </c>
-      <c r="G130" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4262,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>136</v>
-      </c>
-      <c r="G131" t="s">
-        <v>137</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4288,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>27</v>
-      </c>
-      <c r="G132" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4314,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>136</v>
-      </c>
-      <c r="G133" t="s">
-        <v>137</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4340,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>27</v>
-      </c>
-      <c r="G134" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4366,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>136</v>
-      </c>
-      <c r="G135" t="s">
-        <v>137</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4392,13 +4097,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>27</v>
-      </c>
-      <c r="G136" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4418,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>136</v>
-      </c>
-      <c r="G137" t="s">
-        <v>137</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4444,13 +4145,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>27</v>
-      </c>
-      <c r="G138" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4470,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>136</v>
-      </c>
-      <c r="G139" t="s">
-        <v>137</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4498,11 +4195,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98825.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98825.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400373</t>
   </si>
   <si>
+    <t>Shimkus</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shimkus. The committee will come to order, and the Chair recognizes himself for an opening statement.    Today, we are reviewing Senate Bill 611, the Grassroots Rural and Small Community Water Systems Assistance Act. This bill, which passed the Senate by unanimous consent on June 9th of this year, is the Senate companion to H.R. 2853, introduced by our ranking member of the subcommittee, Mr. Tonko, and the vice chairman of the subcommittee, Mr. Harper.    I congratulate and thank them for their bipartisan work to raise the profile of this issue before the subcommittee and encouraging our work on it.    According to the Census Bureau, approximately 27 percent of the U.S. population lives in rural areas. The smallest water systems account for 77 percent of all systems.    As someone who proudly represents communities in small town and rural America, I am glad we have bipartisan interest in tackling this subject.    Under the Safe Drinking Water Act, small and rural drinking water supply systems are subject to a number of drinking water regulations issued by EPA. These requirements include system monitoring, treatment to remove certain contaminants and reporting.    Addressing these matters requires technical, managerial, and physical capabilities that are difficult to develop and are often beyond the capacity of these towns to afford on the same scale as urban centers, particularly when it comes to regulatory compliance.    It is ironic that these communities, where residents work hard to support their families and their local governments while often earning wages below those of their counterparts in the more urbanized areas, face per customer compliance costs and demands that are disproportionate to many larger communities.    Sometimes, it is just a matter of having the ability to keep up with the red tape. Rather than throwing more scarce money at the problem, we learned in February that these communities need help to smartly assess what their needs are for these systems and prioritize the importance of those needs.    The bill before us amends Safe Drinking Water Act to reauthorize the EPA's program providing technical assistance to small public water systems.    Senate Bill 611 maintains the existing statutory authority of $15 million annually, including 3 percent for technical assistance to public water systems owned or operated by Indian tribes, but changes the law to cover funding from fiscal year 2015 through fiscal year 2020.    The bill also authorizes EPA to provide technical assistance programs to small public water systems through grants or cooperative agreements made to nonprofit organizations.    The bill requires preference in awarding grants to nonprofits that are most qualified and experienced and that small water systems find most beneficial and effective--a feature we heard about during our February hearing.    Finally, while Senate Bill 611 prevents grants and cooperative agreements from being used to bring a citizen suit under the Safe Drinking Water Act, it expands the types of activities eligible to receive a grant or cooperative agreement under this Safe Drinking Water Act to include assistance with source water protection plans, monitoring plans and water security.    I want to thank our witnesses who joined us. Having this hearing today is all the more important because, while the House Appropriations Committee has not provided small water technical assistance funding for fiscal year 2016, that committee has left open the option that it would reevaluate funding for this matter as part of a later annual spending bill if Congress enacts a fresh authorization.    People who live in rural communities deserve every bit of water quality and technical resources that folks who live in densely populated urban centers do.    We look forward to your wisdom in helping us understand these issues. Thanks again to Mr. Tonko and Mr. Harper for their work on this issue.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412319</t>
   </si>
   <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Chair Shimkus, and good morning. For holding this hearing, we thank you. It is important to review the Grassroots, Rural and Small Community Water Systems Assistance Act.    I am very pleased to be working with you, Chair, and with Representative Harper and the other members of the subcommittee to move this bill forward.    Sen. Wicker's bill and its companion, H.R. 2853, offers a small but important step that we need to take to support small water utilities. S. 611 reauthorizes a small but important program that delivers technical assistance and training to community water systems.    The ratepayer base for these small systems does not provide a sufficient operating budget to support full time technical positions.    Technical assistance programs like circuit riders and source water protection programs help small utility operators to keep clean safe drinking water flowing to their customers.    Our community water utilities have needs that go far beyond technical assistance, of course. The hearing in our subcommittee back in February provided us with ample evidence of the many needs of small community water utilities.    The situation that exists in rural, suburban and metropolitan areas across our country with respect to the condition of our drinking water infrastructure is indeed very serious.    Drinking water infrastructure across the country is in need of major repairs and major upgrades. Communities are struggling to find the resources needed to maintain water mains, pumping stations and drinking water treatment facilities.    Households and businesses across our country expect reliable daily delivery of safe clean water at an affordable price to their homes and their businesses.    They not only expect it, it is essential to the social and economic viability of every community, of every household, of every business.    The inconvenience, the disruption of daily activities and economic losses to businesses of emergency shutdowns to drinking water systems is indeed significant, even for a shutdown of short duration.    A longer term break in service, as we all know, is devastating. Water utilities, especially those with small rate basis, cannot simply pass all of their costs for technical assistance, infrastructure repairs, tapping into new water sources or keeping pace with drinking water regulations on to their customers by raising rates.    The backlog of maintenance is now too large to be covered by rate increases alone. It is long past time for Congress to step in and provide robust financial support, support that would repair and modernize this essential infrastructure.    Too often now utilities are responding to emergency situations, situations created by ruptures of water mains or sudden problems with raw water quality or quantity. Emergency response costs far more than a systematic planned program of repair and replacement.    The Environmental Protection Agency's most recent report on drinking water infrastructure and their needs indicates that--an investment of $384.2 billion over the next 20 years, about $19 billion, that is, per year.    Because past Congresses failed to heed the information that we asked the agency to produce this number has grown by about $157 billion since the first report was issued back in 1995.    We are headed in the wrong direction. Clearly, more resources are needed. We are not saving money by continuing to ignore this problem. We are only passing an ever growing maintenance bill onto our children and grandchildren and generations yet unborn.    Our parents and grandparents invested in the infrastructure that enabled our Nation to grow and our Nation to prosper. We have a responsibility to ensure that the Nation's infrastructure remains a strong foundation for prosperity into the future.    In addition, to support through traditional funding mechanisms the State revolving loan fund and grant programs, we should also examine alternative financing mechanisms, new technologies and potential new partnerships that would enable every dollar to go that much further in reducing the backlog of infrastructure projects.     We cannot afford to delay these investments any longer. The bill for these repairs is growing, growing larger over time and failure to maintain these systems jeopardizes public health and limits development and economic growth.    Public health, community viability and economic vitality all rest on the foundation of sound infrastructure.    We cannot maintain global leadership and compete in a 21st century global economy with poorly maintained 20th century infrastructure.    And so, Mr. Chair, I hope this bill will not be the subcommittee's last effort on drinking water this Congress. I am certain that other members hear about this problem in their districts as often as you and I do.    If we work together we can rebuild this essential infrastructure and foster economic growth and protect public health. We have an excellent panel with us today and I thank you both for taking time away from the important work that you do to be here with us this morning.    With that, I look forward to your testimony and to working with you going forward. Let us build our drinking water infrastructure.    With that, I yield back to the Chair.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>412280</t>
   </si>
   <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Gregg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman, and thank you so much for our witnesses being here.    Mr. Chairman, thank you for holding this legislative hearing on S. 611, the Grass Roots Rural and Small Community Water System Assistance Act.    As you well know, this issue is of great importance to our constituents who live in rural and small communities. Rural water system often find themselves at a loss when complying with Federal rules and regulations and the technical assistance provided by S. 611 is the tool they use to ensure they are meeting the needs of their customers.    I appreciate the work Mr. Tonko and his staff have done on this issue and for his help in introducing H.R. 2853, the House companion bill to S. 611.    I also would like to welcome my friend, Kirby Mayfield, the executive director of the Mississippi Rural Water Association, and I look forward to hearing today from each of these witnesses and working on these rural water issues in the future.    With that, I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -79,6 +100,12 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you.    I am pleased that the subcommittee is returning to the important issue of drinking water safety. We started this Congress by examining some emerging drinking water threats including toxic blue green algae and the legislation this subcommittee passed on harmful algal blooms is now taking effect and it has set us on a path to address that serious threat.    We also held a hearing back in February on problems facing rural water systems. As we heard then, these systems are facing serious threats from outdated infrastructure, lack of funding and extreme weather.    We in Congress have continued to underfund infrastructure improvements and have continued to undermine efforts to address climate change. So we should expect these problems to get worse before they get better.    Resources are central to any conversation about safe drinking water. Much of our Nation's drinking water infrastructure is well beyond its useful life and in desperate need of replacement. Investing in drinking water infrastructure protects public health, creates jobs and boosts the economy.    It is imperative that this subcommittee take on the important task of reauthorizing the drinking water State revolving fund. The longer we put off drinking water repairs, the more pressing the public health threats become.    But the subcommittee is not tackling that important task today. Instead, the majority is focused on a small pot of money set aside for technical assistance for small public water systems.    This money, distributed through grantees including the National Rural Water Association and the Rural Community Assistance Partnership, has been important for small systems though it does not begin to close the infrastructure funding gap that they face.    Both NRWA and RCAP will be represented on the panel today and I look forward to hearing from them about how this program can be implemented to the greatest benefit for small systems and public health.    I expect the committee and probably the House will move this legislation. It will be signed by the president. That is a good step and I welcome it. But it is not the whole solution for small systems or for our drinking water infrastructure.    Small systems serve only 8 percent of the population. We should absolutely do what is necessary to ensure they have safe water.    But we should also protect the other 92 percent and that means reauthorizing the SRF, ensuring that fracking is done safely, ensuring source water protection, addressing drought and planning for climate change.    I liked the algae bill we worked on earlier this year. This bill shows that we can come together to pass laws and address drinking water issues.    So I hope my Republican colleagues will see this only as the beginning and I thank the chairman for calling this hearing.    I particularly thank the ranking member of our subcommittee, Mr. Tonko, for his leadership on drinking water issues.    I don't know if anybody else wants my time. If not, I will yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -88,12 +115,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Mayfield</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mayfield. Thank you, and good morning, Chairman Shimkus, Ranking Member Tonko, members of the subcommittee.    I am Kirby Mayfield, the executive director of Mississippi Rural Water Association, a nonprofit association of over 1,000 small rural communities as members.    All small and rural communities have the very important public responsibility of complying with all Federal water regulations and for supplying the public with safe drinking water and sanitation every second of every day.    Small and rural communities often have difficulty providing safe affordable drinking water and sanitation due to limited economies of scale and lack of technical experience.    I am very proud that our congressman on the committee, Representative Greg Harper, is sponsor of the Grassroots Rural and Small Community Water Systems Assistance Act in the House of Representatives. Thank you very much, Congressman Harper.    Attached to my written testimony is a letter from the New York Rural Water Association to Representative Tonko, stating, ``On behalf of all the rural small communities in the 20th congressional district in the State of New York, we are grateful to Congressman Tonko for being the original cosponsor of the Grassroots Rural Water Small Community Water Systems Assistance Act and for your continued assistance.''    Mr. Chairman, I used to be a rural water circuit rider for over a decade back in Mississippi. As a circuit rider, as a water operations and compliance assistance technician who travels the State to be available on site and immediately to any small community that has water issues, the circuit rider concept was designed and funded by Congress to allow small communities access to technical expertise that is available to most all larger communities.    A typical on-site contact could include ensuring the water service is protected and secure, discovering and repairing a faulty chlorination system, assisting the community to remove and replace the filtration media, training a new operator to run that particular treatment system, finding engineering and construction errors in a new sewer system, solving lead and copper rule problems or completing all the paperwork for funding programs including the State revolving funds.    Often this means being available to travel to the communities on nights, weekends and during disasters when the problem occurs. Each community's water infrastructure is unique, which means technical assistance must be available to address that community's particular problem.    Regarding the Grassroots Rural and Small Community Water Systems Assistance Act, small and rural communities urge the subcommittee to approve the bill for the following reasons.    The EPA appropriation bill directs about one-half of 1 percent of the agency's internal budget to drinking water technical assistance.    Of the billions of dollars provided to EPA by Congress each year, small rural communities will tell you they see and feel the most benefit from the dollars provided to on-site technical assistance.    The bill reauthorizes the Safe Drinking Water Act technical assistance provision and mandates that EPA target congressional funding for the most beneficial assistance to small rural communities.    The preference provision in the bill ensures EPA will follow congressional intent and administration of the appropriations.    This provision would have implementing the program easier for EPA by providing greater clarity of the intent of Congress to require EPA to ask each technical assistance provider competing for the funding to simply demonstrate to what extent community water systems find their proposal to be the most beneficial and effective.    Small and rural communities are very hopeful the bill can be enacted in the remaining weeks of this congressional session and be operative in this appropriations cycle.    Currently, the small rural communities are struggling under new Federal regulations, complex funding program applications and continuing mandatory operator training requirements.    Thank you again for the opportunity to appear before the subcommittee and discuss this very important public health issue for small and rural communities.    I would be happy to entertain any questions from the subcommittee. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you, Mr. Mayfield.    And now I will turn to Robert Stewart, executive director of Rural Community Assistance Partnership Incorporated, and I think you were here a couple months ago. It is great to have you back, and welcome.</t>
   </si>
   <si>
+    <t>Stewart</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Stewart. Thank you so much, Chairman.    I really appreciate the opportunity to come back and, Chairman Shimkus and Ranking Member Tonko and members of the committee, it really is a pleasure to be here and talk to you about this subject.    I think what we have heard already has laid a great foundation sort of describing what the problem is. But, you know, I am here to testify in support of any efforts including this legislation that can increase the availability of technical assistance and training for small community water systems that is provided by those nonprofit organizations best suited to provide this assistance that have staff on the ground in every State and that is directed at meeting the most critical needs of small communities in regards to regulatory compliance, financial, managerial and technical sustainability.    My name, again, is Robert Stewart. I am with the Rural Community Assistance Partnership, which is a national organization, been around 40 years working with a couple thousand rural communities every year primarily on water and wastewater issues as well as solid waste, affordable housing and economic development issues.    Section 1442(e) of the Safe Drinking Water Act amendments of 1996 were meant to help small communities comply with the increasing regulatory burden that was being placed on them by the Safe Drinking Water Act, sort of a trade-off where we are going to ask you to comply with additional requirements and these have been coming down significantly in the last 20 years.    In order to comply with these things, we said it was going to be a Congress--you all said it was going to be necessary to provide some technical assistance and that is what 1442(e) has--was meant to do and has been--we have been working on.    And, you know, since the expiration of the initial authorization Congress had continued to fund this program, which we are very--we are very much appreciative of, the thousands of small communities that rely on this technical assistance are appreciative of.    You know, I might point out that it has been sort of somewhat distressing to us the EPA has never included this funding within their own budget and it has fallen on the National Rural Water Association and my organization to come to Congress to sort of have these funds appropriated every year.    At the same time, EPA, and Mr. Mayfield was sort of alluding to this in a way but I will say it more directly, EPA has spent a lot of money on developing a variety of tools and programs that are meant to help small communities but which I think in large part have been of marginal usefulness to these small communities.    You know, so one thing I want to talk about, which is--I don't think it is probably under discussion here at all but why--you know, what is the need for on the ground kind of assistance that RCAP and National Rural Water Association provides.    You know, we have heard about the lack of staffing. Typically, you have volunteer staff in these small communities, people that might be working part time.    Many times there is a lack of expertise in meeting the kind of regulatory requirements that these systems fall under in regard to the operations and the compliance.    There is a real difficulty in accessing existing financing sources.    Whether that is due to the EPA's State revolving funds or the rural development's water environment program, it is just--it requires a lot of sophistication in order to understand that they are there, access those fundings, meet all the requirements and then carry through a construction project.    There is also just a variety of issues just in managing a small water utility. This is just like any other business you might come across except it exists in a heavily regulated environment.    And you combine providing a public service, heavily regulated environment, lack of resources, it is just very difficult for small systems--small community systems--to sort of meet all these requirements without some additional kind of training and technical assistance such as the legislation that we are considering here provides.    The needs are many, as I said before, and I understand the resources are few, and I think any time we have a chance to direct the resources to where it is needed the most you are going to see NRWA and RCAP being in support of that and I think that is what this does.    There are a lot of opportunities that we have heard mentioned. I know Mr. Tonko mentioned a couple of these things. You know, regionalization in small communities is something we really need to see.    We need to sort of be in a mode of sharing resources and working together. As you all know, there are 5,600 thousand community water systems in this country. It is just how many electric utilities are there.    You know, I mean, hardly any compared to the tens of thousands of small water systems there are. But the needs, again, you know, emergency preparedness--we have heard about these--a drought, training and equipping operators in small systems, a budget and rate setting, you know, accessing informational resources.    You know, there is just this whole litany of needs that small communities have a real difficult time meeting whereas when you look at the larger utilities they will have professional engineers on staff, CPAs on staff, planners on staff.    And in a small utility like Mr. Mayfield was referring to specifically, it is usually one person that has, you know, 10 different jobs.    And so it has been really tough and so I just welcome the opportunity to talk more about this. I am going to end it here because hopefully you all have some questions that I can answer and I am sure Mr. Mayfield and I would be happy to answer any questions you might have.    Thank you.</t>
   </si>
   <si>
@@ -319,6 +352,12 @@
     <t>412487</t>
   </si>
   <si>
+    <t>McKinley</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman, for the opportunity to have a discussion on this subject and I am pleased to be one of the cosponsors of the legislation that we have.    I represent in West Virginia another--just like you, Mr. Mayfield--a rural impoverished State that struggles. We have the highest rate of unemployment.    We have the second lowest per capita income in my district. I don't have--I have two cities that have 30,000 people. Other than that, every community is smaller than that. Some--I have got one community that only has 500 people, a seasonal community that maybe can grow to 2,000 during the winter. And they had a little problem.    Here is a--here is a water line that they tried for 10 years to get funds for and it only has the ability to pass maybe about 22 percent of the water through that line. But they can't get money.    So I applaud this effort to try to get more technical assistance but I am--but I am wondering if we are chasing the wrong rabbit.    I mean, it is good to get this, to get people lined up in the queue to get money. But we got to get the money. We got to have more money at the other end.    The State revolving fund has been used as a pawn and I know in 2013 the president in his budget slashed almost 50 percent out of the money, out of the SRO.    And if it weren't for members on the other side of the aisle when working with the Appropriations Committee we were able to get that money restored.    But I don't know whether the administration and other people within the groups actually feel the need for rural America with the problems we have with us because this was done not with any--well, not dime of Federal money.    They finally had to get the State to step in because everyone was saying there was just no Federal money. We can't do it because you are such a small community.    I have got another community that has 75 families, that they get their--they have to get bottled water and they have been doing it for 2 years. They get their potable water so that they can flush their toilets out of a creek.    These are middle-income people that have homes that are $150,000 to $200,000 in value, and they can't sell their home. Who is going to buy a home that doesn't have water to it?    So I am very concerned about this. I want this legislation to pass. But I am equally and even more so concerned that we are giving false hope to people, get people in the queue to get money but there is no money because the allocation in the administration or whatever the programs are they are not funding it into rural communities to be able to help out on that.    I know it. All the words sound right but in the real world I think as we live in, small communities aren't getting that money.    And so what would you do then to help refocus this so that this administration or any administration can understand the hardship that is incurring on small towns, these little communities of 500 or 1,000 people? What would you do to get more money into that account?</t>
   </si>
   <si>
@@ -355,6 +394,12 @@
     <t>400160</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman, for calling the hearing as part of the subcommittee's ongoing work on drinking water issues.    Safe drinking water is a serious issue in our district as it is likely for every member of this subcommittee. Small and rural water systems face a number of very serious challenges and do not have the customer base to finance serious infrastructure repairs they need.    Customers of public water systems in the country should be able to count on safety of the water coming out of their taps whether they live in a rural area, cities or suburbs.    My question to the panelists, first of all, I have a very urban area but I also represent an unincorporated area that will not be annexed by our major cities because the property wealth is so low it would cost more to serve those areas with streets and water and sewer than it is to--so they are actually hemmed in by cities.    And we have been able in the past to use assistance with matching funds to be able to bring down some of--from--for even very small urban water systems.    How can consolidation help small and rural water systems, for example, in whether it be a rural area like Mississippi or even in an urban area like I have?</t>
   </si>
   <si>
@@ -401,6 +446,12 @@
   </si>
   <si>
     <t>412189</t>
+  </si>
+  <si>
+    <t>McNerney</t>
+  </si>
+  <si>
+    <t>Jerry</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. McNerney. Well, I thank the chairman for your patience and I thank the witnesses.    Mr. Mayfield, it sounds like the circuit rider is a pretty interesting job. You get to go around and see different things just about every day.</t>
@@ -833,7 +884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,7 +892,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,3341 +914,3917 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>23</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>23</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>23</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>23</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>23</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G62" t="s">
+        <v>23</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G63" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G64" t="s">
+        <v>23</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G65" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>23</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G67" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>23</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G69" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>23</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G72" t="s">
+        <v>28</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G73" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G74" t="s">
+        <v>28</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G76" t="s">
+        <v>28</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G77" t="s">
+        <v>36</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G78" t="s">
+        <v>28</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G79" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G80" t="s">
+        <v>28</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G81" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G82" t="s">
+        <v>28</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G83" t="s">
+        <v>33</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G84" t="s">
+        <v>28</v>
+      </c>
       <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>100</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G86" t="s">
+        <v>112</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>100</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G88" t="s">
+        <v>112</v>
+      </c>
       <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G89" t="s">
+        <v>33</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>100</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G91" t="s">
+        <v>112</v>
+      </c>
       <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G92" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>100</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G93" t="s">
+        <v>112</v>
+      </c>
       <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G94" t="s">
+        <v>33</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>100</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G95" t="s">
+        <v>112</v>
+      </c>
       <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>112</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G97" t="s">
+        <v>126</v>
+      </c>
       <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G98" t="s">
+        <v>33</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G99" t="s">
+        <v>36</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>112</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G100" t="s">
+        <v>126</v>
+      </c>
       <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I100" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G101" t="s">
+        <v>36</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>112</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G102" t="s">
+        <v>126</v>
+      </c>
       <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G103" t="s">
+        <v>36</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>112</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G104" t="s">
+        <v>126</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G105" t="s">
+        <v>36</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>112</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G106" t="s">
+        <v>126</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G107" t="s">
+        <v>36</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>112</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G108" t="s">
+        <v>126</v>
+      </c>
       <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G110" t="s">
+        <v>36</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>128</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G112" t="s">
+        <v>144</v>
+      </c>
       <c r="H112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G113" t="s">
+        <v>33</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>128</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G114" t="s">
+        <v>144</v>
+      </c>
       <c r="H114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G115" t="s">
+        <v>33</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>128</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G116" t="s">
+        <v>144</v>
+      </c>
       <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G117" t="s">
+        <v>33</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>128</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G118" t="s">
+        <v>144</v>
+      </c>
       <c r="H118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G119" t="s">
+        <v>36</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G120" t="s">
+        <v>36</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>128</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G121" t="s">
+        <v>144</v>
+      </c>
       <c r="H121" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G122" t="s">
+        <v>36</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>128</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G123" t="s">
+        <v>144</v>
+      </c>
       <c r="H123" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G124" t="s">
+        <v>36</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>128</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G125" t="s">
+        <v>144</v>
+      </c>
       <c r="H125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G126" t="s">
+        <v>33</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>128</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G127" t="s">
+        <v>144</v>
+      </c>
       <c r="H127" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>23</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G128" t="s">
+        <v>36</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>128</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G129" t="s">
+        <v>144</v>
+      </c>
       <c r="H129" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G130" t="s">
+        <v>36</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>128</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G131" t="s">
+        <v>144</v>
+      </c>
       <c r="H131" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>23</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G132" t="s">
+        <v>36</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>128</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G133" t="s">
+        <v>144</v>
+      </c>
       <c r="H133" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>23</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G134" t="s">
+        <v>36</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>128</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G135" t="s">
+        <v>144</v>
+      </c>
       <c r="H135" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>23</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G136" t="s">
+        <v>33</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>128</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G137" t="s">
+        <v>144</v>
+      </c>
       <c r="H137" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>23</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G138" t="s">
+        <v>33</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>128</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G139" t="s">
+        <v>144</v>
+      </c>
       <c r="H139" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I139" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
       <c r="H140" t="s">
-        <v>156</v>
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98825.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98825.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400373</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Shimkus</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412319</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Tonko</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>412280</t>
   </si>
   <si>
+    <t>Vice Chair</t>
+  </si>
+  <si>
     <t>Harper</t>
   </si>
   <si>
@@ -100,6 +112,9 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Pallone</t>
   </si>
   <si>
@@ -350,6 +365,9 @@
   </si>
   <si>
     <t>412487</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>McKinley</t>
@@ -884,7 +902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -892,7 +910,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,3914 +935,4212 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H50" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" t="s">
-        <v>33</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G52" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H52" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" t="s">
-        <v>33</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
-      </c>
-      <c r="G55" t="s">
-        <v>33</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H56" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
-      </c>
-      <c r="G57" t="s">
-        <v>33</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
-      </c>
-      <c r="G59" t="s">
-        <v>33</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G60" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" t="s">
-        <v>33</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G62" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H62" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
-      </c>
-      <c r="G63" t="s">
-        <v>33</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H64" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
-      </c>
-      <c r="G65" t="s">
-        <v>33</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G66" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
-      </c>
-      <c r="G67" t="s">
-        <v>33</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H68" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
-      </c>
-      <c r="G69" t="s">
-        <v>33</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>38</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H70" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H72" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
-      </c>
-      <c r="G73" t="s">
-        <v>33</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>38</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" t="s">
-        <v>36</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>41</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H76" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" t="s">
-        <v>36</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H78" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" t="s">
-        <v>33</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" t="s">
-        <v>36</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>41</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
-      </c>
-      <c r="G83" t="s">
-        <v>33</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>38</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G86" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H86" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
-      </c>
-      <c r="G87" t="s">
-        <v>33</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>38</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G88" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
-      </c>
-      <c r="G89" t="s">
-        <v>33</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>38</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
-      </c>
-      <c r="G90" t="s">
-        <v>36</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>41</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G91" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I91" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
-      </c>
-      <c r="G92" t="s">
-        <v>36</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>41</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G93" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
-      </c>
-      <c r="G94" t="s">
-        <v>33</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>38</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G95" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H95" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G97" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H97" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I97" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
-      </c>
-      <c r="G98" t="s">
-        <v>33</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>38</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
-      </c>
-      <c r="G99" t="s">
-        <v>36</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>41</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G100" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H100" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I100" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
-      </c>
-      <c r="G101" t="s">
-        <v>36</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>41</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G102" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I102" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
-      </c>
-      <c r="G103" t="s">
-        <v>36</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>41</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G104" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I104" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
-      </c>
-      <c r="G105" t="s">
-        <v>36</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>41</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G106" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I106" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
-      </c>
-      <c r="G107" t="s">
-        <v>36</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>41</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G108" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H108" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I108" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
-      </c>
-      <c r="G110" t="s">
-        <v>36</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>41</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G112" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H112" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I112" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J112" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
-      </c>
-      <c r="G113" t="s">
-        <v>33</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>38</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G114" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H114" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I114" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
-      </c>
-      <c r="G115" t="s">
-        <v>33</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>38</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G116" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I116" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
-      </c>
-      <c r="G117" t="s">
-        <v>33</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>38</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G118" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I118" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="J118" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
-      </c>
-      <c r="G119" t="s">
-        <v>36</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>41</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
-      </c>
-      <c r="G120" t="s">
-        <v>36</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>41</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G121" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I121" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
-      </c>
-      <c r="G122" t="s">
-        <v>36</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>41</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G123" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H123" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I123" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
-      </c>
-      <c r="G124" t="s">
-        <v>36</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>41</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G125" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H125" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I125" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J125" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
-      </c>
-      <c r="G126" t="s">
-        <v>33</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>38</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G127" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H127" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I127" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J127" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
-      </c>
-      <c r="G128" t="s">
-        <v>36</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>41</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G129" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H129" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I129" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J129" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
-      </c>
-      <c r="G130" t="s">
-        <v>36</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>41</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G131" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H131" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I131" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
-      </c>
-      <c r="G132" t="s">
-        <v>36</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>41</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G133" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H133" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I133" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J133" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
-      </c>
-      <c r="G134" t="s">
-        <v>36</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>41</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G135" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H135" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I135" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J135" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
-      </c>
-      <c r="G136" t="s">
-        <v>33</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>38</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G137" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H137" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I137" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J137" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
-      </c>
-      <c r="G138" t="s">
-        <v>33</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>38</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G139" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="H139" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I139" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>151</v>
+      </c>
+      <c r="J139" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I140" t="s">
-        <v>173</v>
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
